--- a/src/main/webapp/Excel/text.xlsx
+++ b/src/main/webapp/Excel/text.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="81">
   <si>
     <t>编号</t>
   </si>
@@ -42,193 +42,226 @@
     <t>二维码</t>
   </si>
   <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>清真猪肉</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>223344</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>电灯泡</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>2018-05-01</t>
+  </si>
+  <si>
+    <t>2018-05-08</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>西红柿</t>
+  </si>
+  <si>
+    <t>2018-05-10</t>
+  </si>
+  <si>
+    <t>2018-05-03</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2018-05-05</t>
+  </si>
+  <si>
+    <t>11222</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>猪肉</t>
+  </si>
+  <si>
+    <t>2018-05-17</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>牛牛牛</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>112233</t>
   </si>
   <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 茶叶</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>面包</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>蛋糕</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>iPhone10</t>
+  </si>
+  <si>
+    <t>8888</t>
+  </si>
+  <si>
+    <t>1996-12-30</t>
+  </si>
+  <si>
+    <t>1998-12-17</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>2018-05-02</t>
+  </si>
+  <si>
+    <t>112222</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>玻璃杯</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10021</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>清真猪肉</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>223344</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>电灯泡</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>2018-05-01</t>
-  </si>
-  <si>
-    <t>2018-05-08</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>西红柿</t>
-  </si>
-  <si>
-    <t>2018-05-10</t>
-  </si>
-  <si>
-    <t>2018-05-03</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>苹果</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2018-05-05</t>
-  </si>
-  <si>
-    <t>11222</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>猪肉</t>
-  </si>
-  <si>
-    <t>2018-05-17</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 茶叶</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>面包</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>蛋糕</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>iPhone10</t>
-  </si>
-  <si>
-    <t>8888</t>
-  </si>
-  <si>
-    <t>1996-12-30</t>
-  </si>
-  <si>
-    <t>1998-12-17</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>2018-05-02</t>
-  </si>
-  <si>
-    <t>112222</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>玻璃杯</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>10021</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
 </sst>
 </file>
@@ -578,13 +611,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -596,50 +629,50 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -647,82 +680,82 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -734,18 +767,18 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -757,18 +790,18 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -780,76 +813,76 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -857,22 +890,321 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
         <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/Excel/text.xlsx
+++ b/src/main/webapp/Excel/text.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EC38FB-D2F6-4D8E-B9AC-EC07395136B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="59">
   <si>
     <t>编号</t>
   </si>
@@ -42,22 +43,34 @@
     <t>二维码</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>清真猪肉</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>牛牛牛</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>112233</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>猪肉</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>223344</t>
   </si>
   <si>
-    <t>82</t>
+    <t>4</t>
   </si>
   <si>
     <t>电灯泡</t>
@@ -66,16 +79,13 @@
     <t>123</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2018-05-01</t>
   </si>
   <si>
     <t>2018-05-08</t>
   </si>
   <si>
-    <t>83</t>
+    <t>5</t>
   </si>
   <si>
     <t>西红柿</t>
@@ -87,7 +97,7 @@
     <t>2018-05-03</t>
   </si>
   <si>
-    <t>84</t>
+    <t>6</t>
   </si>
   <si>
     <t>苹果</t>
@@ -102,28 +112,13 @@
     <t>11222</t>
   </si>
   <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>猪肉</t>
+    <t>7</t>
   </si>
   <si>
     <t>2018-05-17</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>牛牛牛</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>112233</t>
-  </si>
-  <si>
-    <t>86</t>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve"> 茶叶</t>
@@ -132,7 +127,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>87</t>
+    <t>8</t>
   </si>
   <si>
     <t>面包</t>
@@ -144,7 +139,7 @@
     <t>567</t>
   </si>
   <si>
-    <t>88</t>
+    <t>9</t>
   </si>
   <si>
     <t>蛋糕</t>
@@ -171,7 +166,13 @@
     <t>123456</t>
   </si>
   <si>
-    <t>90</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>AirPods</t>
+  </si>
+  <si>
+    <t>1288</t>
   </si>
   <si>
     <t>2018-05-02</t>
@@ -180,16 +181,13 @@
     <t>112222</t>
   </si>
   <si>
-    <t>91</t>
-  </si>
-  <si>
     <t>Laptop</t>
   </si>
   <si>
     <t>6000</t>
   </si>
   <si>
-    <t>92</t>
+    <t>14</t>
   </si>
   <si>
     <t>玻璃杯</t>
@@ -199,82 +197,26 @@
   </si>
   <si>
     <t>10021</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -302,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -579,12 +521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -611,13 +555,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -629,18 +573,18 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -652,110 +596,110 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -767,96 +711,96 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
@@ -864,13 +808,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -887,327 +831,30 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>